--- a/data/trans_dic/P22$concerIndv-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05221111774188377</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05581047907223495</v>
+        <v>0.05581047907223496</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05780979823835611</v>
@@ -697,7 +697,7 @@
         <v>0.05163963120053392</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07518224460038844</v>
+        <v>0.07518224460038846</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03284736200056006</v>
+        <v>0.03177584818692949</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03572088636173906</v>
+        <v>0.03891701869358631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03164240222974511</v>
+        <v>0.03073957048412349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0322018801610812</v>
+        <v>0.03089492862347074</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03177468743358784</v>
+        <v>0.03226006877341083</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02879843885697616</v>
+        <v>0.02992706416514028</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02665320610954201</v>
+        <v>0.02700713738184937</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07218351022112254</v>
+        <v>0.0706301314256108</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03779834749753511</v>
+        <v>0.03802812646699827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0418453580206675</v>
+        <v>0.0394043934567505</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03519728860138876</v>
+        <v>0.03367759566577593</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05695326749921788</v>
+        <v>0.05864300312047633</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09097090471509148</v>
+        <v>0.09311110553115087</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0976981657271955</v>
+        <v>0.1020003284348026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08181349276671937</v>
+        <v>0.08395825486961959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09105624857549109</v>
+        <v>0.09054998154533334</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09250361375222707</v>
+        <v>0.09702626981406677</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08462265459788516</v>
+        <v>0.08999381557005667</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0882824973215096</v>
+        <v>0.08788660718304299</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1225878874663303</v>
+        <v>0.1265887822383097</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07965870204800031</v>
+        <v>0.08080200057316669</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08492091935550737</v>
+        <v>0.07953893273848084</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0736609524304406</v>
+        <v>0.0713831244167554</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0949678299236158</v>
+        <v>0.09946286788066884</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.0210565080009621</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03221495551074393</v>
+        <v>0.03221495551074394</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007938673897152231</v>
+        <v>0.007746123721149874</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0178648359857171</v>
+        <v>0.02009067108857512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004081380933474021</v>
+        <v>0.004165338478885956</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01867122415143938</v>
+        <v>0.01649919014941124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01513861510129169</v>
+        <v>0.01488026698262099</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02661078400486856</v>
+        <v>0.02601055150467378</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01660299383993668</v>
+        <v>0.01748604164171546</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02168217109736845</v>
+        <v>0.02101757942916906</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01411050492146761</v>
+        <v>0.01419032886124999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02693086788425821</v>
+        <v>0.02733705735899089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01341313147114624</v>
+        <v>0.01332531709030415</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02217631588053341</v>
+        <v>0.02312195880158233</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03627922356328724</v>
+        <v>0.03709274872040152</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05763833138536839</v>
+        <v>0.05689967898534948</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02731300476299809</v>
+        <v>0.0280269187586107</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05321253278554195</v>
+        <v>0.05080565108084543</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04809295463258677</v>
+        <v>0.04514630543605428</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06856252771696746</v>
+        <v>0.06444681321171671</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04815500420956126</v>
+        <v>0.05071229251113897</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05045056943826399</v>
+        <v>0.0483193979851698</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03423415966929617</v>
+        <v>0.03492970036638733</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05451743737472249</v>
+        <v>0.05511103065321875</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03222139195954143</v>
+        <v>0.03259318984252634</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04405531763366661</v>
+        <v>0.0444979428423944</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01132958226710276</v>
+        <v>0.01193694132381331</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005992368651132287</v>
+        <v>0.006042649046554862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005599162277207855</v>
+        <v>0.005623961143178671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03775361834357346</v>
+        <v>0.03688327103809621</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002989989187466891</v>
+        <v>0.003000155217527052</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005273771646814929</v>
+        <v>0.005252871110242184</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008113406021771517</v>
+        <v>0.005699388758086516</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05106158678358978</v>
+        <v>0.05105511319603465</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00989368090673952</v>
+        <v>0.009939110176913495</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008692170452209725</v>
+        <v>0.008678449980927804</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008468541961217418</v>
+        <v>0.008494919750008179</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04930929499528506</v>
+        <v>0.04920530856715889</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04911857666476994</v>
+        <v>0.04777581874153729</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04548073857788675</v>
+        <v>0.04928022034703108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03229583844547567</v>
+        <v>0.03133692234901366</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08860908285098912</v>
+        <v>0.08936745409744591</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02946768346778481</v>
+        <v>0.02964346041432015</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04388182835150346</v>
+        <v>0.04532627952756584</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03558466156394569</v>
+        <v>0.03645471010380186</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09804230506948247</v>
+        <v>0.09539544391536604</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03138142123555789</v>
+        <v>0.03152378526657014</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03773111464349095</v>
+        <v>0.03598717350736584</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02603970131835263</v>
+        <v>0.02585276009189877</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08251014999431777</v>
+        <v>0.0814695850229893</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.06006212550416334</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08306235628985681</v>
+        <v>0.08306235628985678</v>
       </c>
     </row>
     <row r="14">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008460112121201435</v>
+        <v>0.008480339198346168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0366775339985954</v>
+        <v>0.03686695943314805</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05734473111114649</v>
+        <v>0.0565848383225795</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01087339434486383</v>
+        <v>0.01236546327717308</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01765773935860058</v>
+        <v>0.01626021888162016</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03793632603976953</v>
+        <v>0.03743689085248288</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05798116276728679</v>
+        <v>0.06006654059828088</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007932581855471993</v>
+        <v>0.00792066088333507</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01504574041118394</v>
+        <v>0.01583466289909401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04437264389189884</v>
+        <v>0.04217508385830793</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0640858165818054</v>
+        <v>0.06415481018239735</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02067578945545145</v>
+        <v>0.0182147906379167</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03981726905992352</v>
+        <v>0.03911830518885934</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08784062420311095</v>
+        <v>0.09209928449735696</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1269382370637598</v>
+        <v>0.1341709064330588</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04186643551057199</v>
+        <v>0.04297262645175843</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05660119631451269</v>
+        <v>0.05360014235846423</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09247040633659705</v>
+        <v>0.09102018406822812</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1069734814261825</v>
+        <v>0.1084786072057599</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02575605050038921</v>
+        <v>0.02497741039873907</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03921134746655187</v>
+        <v>0.04079436971757389</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08001755319079258</v>
+        <v>0.08074811202662435</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.105879019521292</v>
+        <v>0.1075669121957143</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.004057191977577314</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.057063976676814</v>
+        <v>0.05706397667681398</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04231108200367481</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01260757031972254</v>
+        <v>0.01225608556903022</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01837415020728249</v>
+        <v>0.01885752942968526</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02638149856164255</v>
+        <v>0.02301468462523314</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02892061205623219</v>
+        <v>0.02778896200981164</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03064103471524831</v>
+        <v>0.03482890602238239</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03835873114191315</v>
+        <v>0.03760799588497563</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02549276152882052</v>
+        <v>0.02601924605355105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0316349635813304</v>
+        <v>0.03224511415301899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002048702562329564</v>
+        <v>0.002051246558906756</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03778446821006241</v>
+        <v>0.03786035598631111</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0596721249025937</v>
+        <v>0.055391394105151</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07480172888101691</v>
+        <v>0.07796469011975177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02994849840911107</v>
+        <v>0.02974995868267699</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07576936881003968</v>
+        <v>0.07261525203507735</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09506256698711654</v>
+        <v>0.09106473735627772</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09789719893925966</v>
+        <v>0.09997293260970151</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02609183857892231</v>
+        <v>0.02122952426307662</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07923774811177331</v>
+        <v>0.07852432025483742</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06442103265835504</v>
+        <v>0.06726091275618</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07439489467518021</v>
+        <v>0.07584168627192461</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01666017724107342</v>
+        <v>0.01653745541798836</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06788942986334341</v>
+        <v>0.07007604575285022</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.01129890364247232</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.04654294470078001</v>
+        <v>0.04654294470078</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01157854782837458</v>
@@ -1365,7 +1365,7 @@
         <v>0.01130681305391547</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06073845000795845</v>
+        <v>0.06073845000795842</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.009730959880588759</v>
@@ -1377,7 +1377,7 @@
         <v>0.01130293203828031</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05354831046245612</v>
+        <v>0.05354831046245613</v>
       </c>
     </row>
     <row r="20">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003257054547261391</v>
+        <v>0.003273330347494061</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003553435074607795</v>
+        <v>0.003545382464443884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02752268969731255</v>
+        <v>0.02873462015979255</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003638679182707859</v>
+        <v>0.003625327546994787</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003506721668429205</v>
+        <v>0.003548830677689789</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003677860643186755</v>
+        <v>0.003700103093584958</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04159050062105876</v>
+        <v>0.04067127716576237</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003691201101483508</v>
+        <v>0.003781116371720566</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005330623098619484</v>
+        <v>0.005179674462623116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.003931015603602571</v>
+        <v>0.003755096641013685</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03896395700685427</v>
+        <v>0.03977826213481688</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02378927653559481</v>
+        <v>0.02746086186220387</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04149214724079224</v>
+        <v>0.04273031623227207</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03072418328902475</v>
+        <v>0.03035229386299844</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07159880700953844</v>
+        <v>0.07515630820452808</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03146130979511411</v>
+        <v>0.03182389076325275</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03902057190088658</v>
+        <v>0.03942803569535949</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03084127652720108</v>
+        <v>0.03063672269501879</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0860709087115641</v>
+        <v>0.09011371620750748</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02165661136770735</v>
+        <v>0.0215882069979152</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03047177776409752</v>
+        <v>0.029604182178591</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02408158529633904</v>
+        <v>0.02258231328072859</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07149568608200041</v>
+        <v>0.07337852518666652</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01685661848857892</v>
+        <v>0.01771182359426473</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01298170450773499</v>
+        <v>0.01315658483030767</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03479692790551208</v>
+        <v>0.0335120901389126</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1079583371097094</v>
+        <v>0.1138635835691314</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03320629026542055</v>
+        <v>0.0320423403200853</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01309547222232481</v>
+        <v>0.01452854858616793</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04037449100319022</v>
+        <v>0.04046149725730357</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1502944985914284</v>
+        <v>0.1487307585039309</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02845899798889612</v>
+        <v>0.02919598823793991</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01628674325085145</v>
+        <v>0.01638320717999271</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04303335710859379</v>
+        <v>0.04203601912226426</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.140095613967475</v>
+        <v>0.1397900001843052</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04662545659487071</v>
+        <v>0.0448684915088998</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04428002923864763</v>
+        <v>0.04122327687727477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07190993739578068</v>
+        <v>0.07052167353390842</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1669627841547437</v>
+        <v>0.1694113451314297</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06857567249207637</v>
+        <v>0.06848539512545791</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03932802871935089</v>
+        <v>0.03865018593788769</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07476470569248664</v>
+        <v>0.07774914663187102</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2010230233786774</v>
+        <v>0.1992558208032036</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05124042138196775</v>
+        <v>0.05157880070061445</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0340931449168484</v>
+        <v>0.03463548206430684</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06835859593614958</v>
+        <v>0.06627478746384341</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1760542359103033</v>
+        <v>0.1772548888544289</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.06751430756367155</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.05529850590256866</v>
+        <v>0.05529850590256868</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05104411146385378</v>
@@ -1649,7 +1649,7 @@
         <v>0.05229648898685193</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.04315671171451997</v>
+        <v>0.04315671171451998</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02971462855753782</v>
+        <v>0.03063792639757848</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02921588252782959</v>
+        <v>0.03024109010637776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02459399574648939</v>
+        <v>0.02397505898052392</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01928928360982217</v>
+        <v>0.02016468838963074</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04176956808590831</v>
+        <v>0.04243985001469718</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02313346671785058</v>
+        <v>0.02346111497263974</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05152595911359845</v>
+        <v>0.05084583705997727</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0414739895938219</v>
+        <v>0.04146852069971518</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0402792194300566</v>
+        <v>0.0407890428487255</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02953349778695174</v>
+        <v>0.02976672356206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0411669566897773</v>
+        <v>0.04239624812620824</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03432886289852391</v>
+        <v>0.03357596101402806</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06124557946296143</v>
+        <v>0.06149920090690834</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06320177910707413</v>
+        <v>0.06221134252590716</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05270354138906386</v>
+        <v>0.05252438315631502</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04434757902205711</v>
+        <v>0.04590954049488361</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07540499696335987</v>
+        <v>0.07889732563527688</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04877494570728423</v>
+        <v>0.04926312564245242</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.08891746904153575</v>
+        <v>0.08861370549315918</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07011676459200976</v>
+        <v>0.07005089201340563</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06207893844640399</v>
+        <v>0.06271205731079482</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05091797597725976</v>
+        <v>0.05037824512318315</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06343345929008481</v>
+        <v>0.06570426247765737</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05489720372293173</v>
+        <v>0.05446146850256098</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.03921577079083025</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.07526811528232438</v>
+        <v>0.07526811528232434</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02252599278577135</v>
+        <v>0.02255433086277019</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02676718375725171</v>
+        <v>0.02640231008742972</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02791240989728044</v>
+        <v>0.02716589645833522</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05719604379402483</v>
+        <v>0.05711241735388319</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03277391552490743</v>
+        <v>0.0326707690948568</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02745282753182927</v>
+        <v>0.02725751185358634</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.0369159570874145</v>
+        <v>0.03810668278311024</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07655904837284976</v>
+        <v>0.07686084181394559</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02958888213217725</v>
+        <v>0.02964086655360973</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02870493511344608</v>
+        <v>0.02855025011748182</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0343889600039972</v>
+        <v>0.03491728187818138</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0692934127881901</v>
+        <v>0.06935280074348144</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03389527467715938</v>
+        <v>0.03367560297865173</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0400822250879378</v>
+        <v>0.03907096047496042</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04063544269262302</v>
+        <v>0.03974342353299454</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07500952627352894</v>
+        <v>0.0764245130160851</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04716834964403122</v>
+        <v>0.04647818735689761</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04048626710301031</v>
+        <v>0.04015192021710382</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05162134579567989</v>
+        <v>0.05217590359801395</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09269819528655363</v>
+        <v>0.09270786462117087</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.0383096186993904</v>
+        <v>0.03859628363265374</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.03841486433189305</v>
+        <v>0.03749156722390683</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.04428385899146866</v>
+        <v>0.04440655538373068</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.08147794043465999</v>
+        <v>0.0814050508829605</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8937</v>
+        <v>8646</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10528</v>
+        <v>11470</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9295</v>
+        <v>9030</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10267</v>
+        <v>9851</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8288</v>
+        <v>8415</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8272</v>
+        <v>8596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7669</v>
+        <v>7771</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>22814</v>
+        <v>22323</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>20144</v>
+        <v>20266</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>24353</v>
+        <v>22933</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>20467</v>
+        <v>19583</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>36160</v>
+        <v>37233</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24752</v>
+        <v>25334</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28795</v>
+        <v>30063</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24034</v>
+        <v>24664</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29033</v>
+        <v>28871</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24128</v>
+        <v>25308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24307</v>
+        <v>25850</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25401</v>
+        <v>25287</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38745</v>
+        <v>40010</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>42452</v>
+        <v>43061</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>49423</v>
+        <v>46290</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42833</v>
+        <v>41508</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>60296</v>
+        <v>63150</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3914</v>
+        <v>3819</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9014</v>
+        <v>10137</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2051</v>
+        <v>2093</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9908</v>
+        <v>8755</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7629</v>
+        <v>7499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13938</v>
+        <v>13623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8685</v>
+        <v>9147</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11849</v>
+        <v>11486</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14069</v>
+        <v>14148</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>27693</v>
+        <v>28111</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13757</v>
+        <v>13667</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>23887</v>
+        <v>24906</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17888</v>
+        <v>18290</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29081</v>
+        <v>28709</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13727</v>
+        <v>14086</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28237</v>
+        <v>26960</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24236</v>
+        <v>22751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35911</v>
+        <v>33755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25189</v>
+        <v>26527</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27571</v>
+        <v>26406</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>34132</v>
+        <v>34826</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>56061</v>
+        <v>56671</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>33048</v>
+        <v>33429</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>47454</v>
+        <v>47931</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3612</v>
+        <v>3806</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1942</v>
+        <v>1958</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11930</v>
+        <v>11655</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2729</v>
+        <v>1917</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18197</v>
+        <v>18195</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6473</v>
+        <v>6503</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5781</v>
+        <v>5772</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5530</v>
+        <v>5547</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>33154</v>
+        <v>33084</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15661</v>
+        <v>15233</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14738</v>
+        <v>15969</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10227</v>
+        <v>9923</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28000</v>
+        <v>28239</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9884</v>
+        <v>9943</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14965</v>
+        <v>15457</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11967</v>
+        <v>12260</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34940</v>
+        <v>33997</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20532</v>
+        <v>20625</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>25094</v>
+        <v>23934</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17003</v>
+        <v>16881</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55478</v>
+        <v>54778</v>
       </c>
     </row>
     <row r="16">
@@ -2691,37 +2691,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3164</v>
+        <v>3171</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13569</v>
+        <v>13639</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21398</v>
+        <v>21114</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4030</v>
+        <v>4583</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6868</v>
+        <v>6324</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14692</v>
+        <v>14499</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24466</v>
+        <v>25346</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5768</v>
+        <v>5759</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>11479</v>
+        <v>12081</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>33601</v>
+        <v>31937</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>50955</v>
+        <v>51010</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7371</v>
+        <v>6494</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14891</v>
+        <v>14630</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32498</v>
+        <v>34073</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47366</v>
+        <v>50065</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15516</v>
+        <v>15926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22015</v>
+        <v>20848</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>35812</v>
+        <v>35251</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45139</v>
+        <v>45774</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18728</v>
+        <v>18162</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29916</v>
+        <v>31123</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>60593</v>
+        <v>61146</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>84185</v>
+        <v>85527</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2563</v>
+        <v>2492</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3907</v>
+        <v>4009</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5426</v>
+        <v>4733</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6006</v>
+        <v>5771</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6728</v>
+        <v>7648</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8716</v>
+        <v>8545</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>10477</v>
+        <v>10693</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>13673</v>
+        <v>13937</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>16356</v>
+        <v>16389</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12132</v>
+        <v>11262</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15904</v>
+        <v>16577</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6326</v>
+        <v>6284</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>15583</v>
+        <v>14934</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19741</v>
+        <v>18911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>21497</v>
+        <v>21953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5703</v>
+        <v>4640</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18004</v>
+        <v>17842</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>26475</v>
+        <v>27643</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>32154</v>
+        <v>32779</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>7161</v>
+        <v>7108</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>29388</v>
+        <v>30334</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7451</v>
+        <v>7779</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>10969</v>
+        <v>10727</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2026</v>
+        <v>2076</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2953</v>
+        <v>2870</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2108</v>
+        <v>2014</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>20825</v>
+        <v>21260</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6442</v>
+        <v>7437</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11368</v>
+        <v>11707</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8084</v>
+        <v>7986</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19382</v>
+        <v>20345</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8751</v>
+        <v>8852</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10927</v>
+        <v>11041</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8423</v>
+        <v>8367</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22701</v>
+        <v>23767</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11889</v>
+        <v>11851</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>16882</v>
+        <v>16401</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>12913</v>
+        <v>12109</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>38211</v>
+        <v>39218</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>10350</v>
+        <v>10875</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8604</v>
+        <v>8720</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>22741</v>
+        <v>21902</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>77696</v>
+        <v>81946</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21154</v>
+        <v>20412</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9086</v>
+        <v>10081</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>27716</v>
+        <v>27776</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>115876</v>
+        <v>114670</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>35604</v>
+        <v>36526</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>22095</v>
+        <v>22226</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>57665</v>
+        <v>56329</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>208837</v>
+        <v>208382</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28629</v>
+        <v>27550</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>29348</v>
+        <v>27322</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>46996</v>
+        <v>46089</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>120161</v>
+        <v>121923</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>43685</v>
+        <v>43628</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>27288</v>
+        <v>26818</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>51324</v>
+        <v>53372</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>154987</v>
+        <v>153624</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>64105</v>
+        <v>64528</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>46252</v>
+        <v>46988</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>91601</v>
+        <v>88809</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>262440</v>
+        <v>264230</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>22033</v>
+        <v>22717</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>22762</v>
+        <v>23561</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>19148</v>
+        <v>18667</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>15394</v>
+        <v>16093</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>32727</v>
+        <v>33252</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>19059</v>
+        <v>19329</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>42569</v>
+        <v>42007</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>34449</v>
+        <v>34444</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>61425</v>
+        <v>62203</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>47341</v>
+        <v>47715</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>66063</v>
+        <v>68035</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>55911</v>
+        <v>54685</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>45412</v>
+        <v>45600</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>49240</v>
+        <v>48469</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>41034</v>
+        <v>40895</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>35393</v>
+        <v>36639</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>59081</v>
+        <v>61817</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>40183</v>
+        <v>40586</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>73461</v>
+        <v>73210</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>58240</v>
+        <v>58185</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>94669</v>
+        <v>95635</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>81619</v>
+        <v>80754</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>101795</v>
+        <v>105439</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>89410</v>
+        <v>88700</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>73663</v>
+        <v>73756</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>91699</v>
+        <v>90449</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>94607</v>
+        <v>92077</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>202060</v>
+        <v>201765</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>110683</v>
+        <v>110335</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>97686</v>
+        <v>96991</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>130636</v>
+        <v>134850</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>285830</v>
+        <v>286957</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>196686</v>
+        <v>197032</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>200478</v>
+        <v>199398</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>238253</v>
+        <v>241913</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>503502</v>
+        <v>503933</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>110842</v>
+        <v>110124</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>137314</v>
+        <v>133849</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>137731</v>
+        <v>134708</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>264991</v>
+        <v>269990</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>159296</v>
+        <v>156965</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>144063</v>
+        <v>142873</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>182674</v>
+        <v>184637</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>346085</v>
+        <v>346121</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>254656</v>
+        <v>256561</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>268294</v>
+        <v>261845</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>306806</v>
+        <v>307656</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>592037</v>
+        <v>591507</v>
       </c>
     </row>
     <row r="40">
